--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H2">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.8347313821402</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N2">
-        <v>45.8347313821402</v>
+        <v>138.752804</v>
       </c>
       <c r="O2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q2">
-        <v>584.5300421084856</v>
+        <v>1339.255137805533</v>
       </c>
       <c r="R2">
-        <v>584.5300421084856</v>
+        <v>12053.29624024979</v>
       </c>
       <c r="S2">
-        <v>0.3357593617213994</v>
+        <v>0.5254398519641597</v>
       </c>
       <c r="T2">
-        <v>0.3357593617213994</v>
+        <v>0.5254398519641599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H3">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.03769915072073</v>
+        <v>0.01632333333333333</v>
       </c>
       <c r="N3">
-        <v>2.03769915072073</v>
+        <v>0.04897</v>
       </c>
       <c r="O3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065126</v>
       </c>
       <c r="P3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065127</v>
       </c>
       <c r="Q3">
-        <v>25.98676450058421</v>
+        <v>0.4726630540622222</v>
       </c>
       <c r="R3">
-        <v>25.98676450058421</v>
+        <v>4.25396748656</v>
       </c>
       <c r="S3">
-        <v>0.01492703340010898</v>
+        <v>0.0001854433842698047</v>
       </c>
       <c r="T3">
-        <v>0.01492703340010898</v>
+        <v>0.0001854433842698048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6827628451534</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H4">
-        <v>12.6827628451534</v>
+        <v>86.868848</v>
       </c>
       <c r="I4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.8347313821402</v>
+        <v>2.066797333333333</v>
       </c>
       <c r="N4">
-        <v>45.8347313821402</v>
+        <v>6.200391999999999</v>
       </c>
       <c r="O4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="P4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="Q4">
-        <v>581.3110281909943</v>
+        <v>59.84676779871288</v>
       </c>
       <c r="R4">
-        <v>581.3110281909943</v>
+        <v>538.6209101884159</v>
       </c>
       <c r="S4">
-        <v>0.3339103309095517</v>
+        <v>0.02348012408167088</v>
       </c>
       <c r="T4">
-        <v>0.3339103309095517</v>
+        <v>0.02348012408167089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6827628451534</v>
+        <v>12.691493</v>
       </c>
       <c r="H5">
-        <v>12.6827628451534</v>
+        <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J5">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.03769915072073</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N5">
-        <v>2.03769915072073</v>
+        <v>138.752804</v>
       </c>
       <c r="O5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q5">
-        <v>25.84365507836151</v>
+        <v>586.9934135654573</v>
       </c>
       <c r="R5">
-        <v>25.84365507836151</v>
+        <v>5282.940722089115</v>
       </c>
       <c r="S5">
-        <v>0.01484483004904</v>
+        <v>0.2302994579756889</v>
       </c>
       <c r="T5">
-        <v>0.01484483004904</v>
+        <v>0.2302994579756889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H6">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>45.8347313821402</v>
+        <v>0.01632333333333333</v>
       </c>
       <c r="N6">
-        <v>45.8347313821402</v>
+        <v>0.04897</v>
       </c>
       <c r="O6">
-        <v>0.957434808969601</v>
+        <v>0.0003377190931065126</v>
       </c>
       <c r="P6">
-        <v>0.957434808969601</v>
+        <v>0.0003377190931065127</v>
       </c>
       <c r="Q6">
-        <v>16.07322386446506</v>
+        <v>0.2071674707366666</v>
       </c>
       <c r="R6">
-        <v>16.07322386446506</v>
+        <v>1.86450723663</v>
       </c>
       <c r="S6">
-        <v>0.009232605677667372</v>
+        <v>8.127954269716586E-05</v>
       </c>
       <c r="T6">
-        <v>0.009232605677667372</v>
+        <v>8.127954269716587E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H7">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.03769915072073</v>
+        <v>2.066797333333333</v>
       </c>
       <c r="N7">
-        <v>2.03769915072073</v>
+        <v>6.200391999999999</v>
       </c>
       <c r="O7">
-        <v>0.04256519103039897</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="P7">
-        <v>0.04256519103039897</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="Q7">
-        <v>0.7145759041303513</v>
+        <v>26.23074388841866</v>
       </c>
       <c r="R7">
-        <v>0.7145759041303513</v>
+        <v>236.076694995768</v>
       </c>
       <c r="S7">
-        <v>0.0004104588852385618</v>
+        <v>0.01029130133353411</v>
       </c>
       <c r="T7">
-        <v>0.0004104588852385618</v>
+        <v>0.01029130133353411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.5793725152376</v>
+        <v>0.4888703333333334</v>
       </c>
       <c r="H8">
-        <v>10.5793725152376</v>
+        <v>1.466611</v>
       </c>
       <c r="I8">
-        <v>0.290915379356994</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="J8">
-        <v>0.290915379356994</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.8347313821402</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N8">
-        <v>45.8347313821402</v>
+        <v>138.752804</v>
       </c>
       <c r="O8">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P8">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q8">
-        <v>484.9026974275123</v>
+        <v>22.61070984747155</v>
       </c>
       <c r="R8">
-        <v>484.9026974275123</v>
+        <v>203.496388627244</v>
       </c>
       <c r="S8">
-        <v>0.2785325106609826</v>
+        <v>0.00887102666227378</v>
       </c>
       <c r="T8">
-        <v>0.2785325106609826</v>
+        <v>0.00887102666227378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.466611</v>
+      </c>
+      <c r="I9">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J9">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.04897</v>
+      </c>
+      <c r="O9">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P9">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q9">
+        <v>0.007979993407777778</v>
+      </c>
+      <c r="R9">
+        <v>0.07181994067</v>
+      </c>
+      <c r="S9">
+        <v>3.130849706298886E-06</v>
+      </c>
+      <c r="T9">
+        <v>3.130849706298887E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.5793725152376</v>
-      </c>
-      <c r="H9">
-        <v>10.5793725152376</v>
-      </c>
-      <c r="I9">
-        <v>0.290915379356994</v>
-      </c>
-      <c r="J9">
-        <v>0.290915379356994</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.03769915072073</v>
-      </c>
-      <c r="N9">
-        <v>2.03769915072073</v>
-      </c>
-      <c r="O9">
-        <v>0.04256519103039897</v>
-      </c>
-      <c r="P9">
-        <v>0.04256519103039897</v>
-      </c>
-      <c r="Q9">
-        <v>21.55757838945789</v>
-      </c>
-      <c r="R9">
-        <v>21.55757838945789</v>
-      </c>
-      <c r="S9">
-        <v>0.01238286869601144</v>
-      </c>
-      <c r="T9">
-        <v>0.01238286869601144</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.466611</v>
+      </c>
+      <c r="I10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q10">
+        <v>1.010395901279111</v>
+      </c>
+      <c r="R10">
+        <v>9.093563111511999</v>
+      </c>
+      <c r="S10">
+        <v>0.0003964160807052882</v>
+      </c>
+      <c r="T10">
+        <v>0.0003964160807052882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H11">
+        <v>31.790737</v>
+      </c>
+      <c r="I11">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J11">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N11">
+        <v>138.752804</v>
+      </c>
+      <c r="O11">
+        <v>0.9569015955251317</v>
+      </c>
+      <c r="P11">
+        <v>0.9569015955251318</v>
+      </c>
+      <c r="Q11">
+        <v>490.1170999973942</v>
+      </c>
+      <c r="R11">
+        <v>4411.053899976548</v>
+      </c>
+      <c r="S11">
+        <v>0.1922912589230093</v>
+      </c>
+      <c r="T11">
+        <v>0.1922912589230093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H12">
+        <v>31.790737</v>
+      </c>
+      <c r="I12">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J12">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.04897</v>
+      </c>
+      <c r="O12">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P12">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q12">
+        <v>0.1729769323211111</v>
+      </c>
+      <c r="R12">
+        <v>1.55679239089</v>
+      </c>
+      <c r="S12">
+        <v>6.786531643324314E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.786531643324315E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H13">
+        <v>31.790737</v>
+      </c>
+      <c r="I13">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J13">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q13">
+        <v>21.90167015210044</v>
+      </c>
+      <c r="R13">
+        <v>197.115031368904</v>
+      </c>
+      <c r="S13">
+        <v>0.008592843885851525</v>
+      </c>
+      <c r="T13">
+        <v>0.008592843885851525</v>
       </c>
     </row>
   </sheetData>
